--- a/docment/テスト項目関連/android chrome55.xlsx
+++ b/docment/テスト項目関連/android chrome55.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="165">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -2080,9 +2080,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>難易度「ふつう」　モノは上から　羊・羊・狼　になっているか？</t>
@@ -2747,6 +2744,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2756,15 +2768,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2780,11 +2783,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2798,35 +2807,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2834,15 +2840,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2864,6 +2861,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2872,9 +2872,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3180,7 +3177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3449,7 +3446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
@@ -3493,7 +3490,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
       <c r="B3" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="124"/>
       <c r="D3" s="124"/>
@@ -3513,13 +3510,13 @@
       <c r="A4" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="19"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3527,15 +3524,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
       <c r="I5" s="15"/>
       <c r="J5" s="2" t="s">
         <v>160</v>
@@ -3545,15 +3542,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
       <c r="I6" s="51"/>
       <c r="J6" s="2" t="s">
         <v>160</v>
@@ -3563,15 +3560,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
       <c r="I7" s="38"/>
       <c r="J7" s="2" t="s">
         <v>160</v>
@@ -3581,15 +3578,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
       <c r="I8" s="34"/>
       <c r="J8" s="2" t="s">
         <v>160</v>
@@ -3599,15 +3596,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="15"/>
       <c r="J9" s="2" t="s">
         <v>160</v>
@@ -3617,15 +3614,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
       <c r="I10" s="33"/>
       <c r="J10" s="2" t="s">
         <v>160</v>
@@ -3635,15 +3632,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
       <c r="I11" s="50"/>
       <c r="J11" s="2" t="s">
         <v>160</v>
@@ -3656,15 +3653,15 @@
       <c r="A13" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="55" t="s">
         <v>57</v>
       </c>
@@ -3680,13 +3677,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="73"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="107"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="56"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
@@ -3696,13 +3693,13 @@
       <c r="A15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="58"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
@@ -3710,15 +3707,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="67"/>
       <c r="J16" s="2" t="s">
         <v>160</v>
@@ -3728,15 +3725,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="67"/>
       <c r="J17" s="2" t="s">
         <v>160</v>
@@ -3746,15 +3743,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="67"/>
       <c r="J18" s="2" t="s">
         <v>160</v>
@@ -3764,15 +3761,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
       <c r="I19" s="67"/>
       <c r="J19" s="2" t="s">
         <v>160</v>
@@ -3782,15 +3779,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2" t="s">
         <v>160</v>
@@ -3800,15 +3797,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2" t="s">
         <v>160</v>
@@ -3818,15 +3815,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2" t="s">
         <v>160</v>
@@ -3836,15 +3833,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2" t="s">
         <v>160</v>
@@ -3854,15 +3851,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2" t="s">
         <v>160</v>
@@ -3872,15 +3869,15 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
       <c r="I25" s="72"/>
       <c r="J25" s="2" t="s">
         <v>160</v>
@@ -3890,15 +3887,15 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
       <c r="I26" s="72"/>
       <c r="J26" s="2" t="s">
         <v>160</v>
@@ -3908,15 +3905,15 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
       <c r="I27" s="61"/>
       <c r="J27" s="2" t="s">
         <v>160</v>
@@ -3926,15 +3923,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2" t="s">
         <v>160</v>
@@ -3944,15 +3941,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2" t="s">
         <v>160</v>
@@ -3962,15 +3959,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2" t="s">
         <v>160</v>
@@ -3980,15 +3977,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2" t="s">
         <v>160</v>
@@ -3998,15 +3995,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2" t="s">
         <v>160</v>
@@ -4016,15 +4013,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2" t="s">
         <v>160</v>
@@ -4034,15 +4031,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2" t="s">
         <v>160</v>
@@ -4052,15 +4049,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2" t="s">
         <v>160</v>
@@ -4070,15 +4067,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
@@ -4086,15 +4083,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2" t="s">
         <v>160</v>
@@ -4104,15 +4101,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
@@ -4120,26 +4117,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B3:H3"/>
@@ -4156,6 +4133,26 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4172,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4216,7 +4213,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
       <c r="B3" s="124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="124"/>
       <c r="D3" s="124"/>
@@ -4250,15 +4247,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="53"/>
       <c r="J5" s="2" t="s">
         <v>160</v>
@@ -4268,15 +4265,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
       <c r="I6" s="53"/>
       <c r="J6" s="2" t="s">
         <v>160</v>
@@ -4286,31 +4283,33 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
       <c r="I7" s="53"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
       <c r="I8" s="11"/>
       <c r="J8" s="2" t="s">
         <v>160</v>
@@ -4320,15 +4319,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2" t="s">
         <v>160</v>
@@ -4338,15 +4337,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
       <c r="I10" s="39"/>
       <c r="J10" s="2" t="s">
         <v>160</v>
@@ -4356,15 +4355,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="11"/>
       <c r="J11" s="2" t="s">
         <v>160</v>
@@ -4374,15 +4373,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
       <c r="I12" s="39"/>
       <c r="J12" s="2" t="s">
         <v>160</v>
@@ -4392,15 +4391,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="11"/>
       <c r="J13" s="2" t="s">
         <v>160</v>
@@ -4410,15 +4409,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
       <c r="I14" s="33"/>
       <c r="J14" s="2" t="s">
         <v>160</v>
@@ -4428,15 +4427,15 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
       <c r="I15" s="33"/>
       <c r="J15" s="2" t="s">
         <v>160</v>
@@ -4449,15 +4448,15 @@
       <c r="A17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="113"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
       <c r="I17" s="55" t="s">
         <v>57</v>
       </c>
@@ -4473,13 +4472,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="73"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="56"/>
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
@@ -4489,13 +4488,13 @@
       <c r="A19" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="58"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
@@ -4503,15 +4502,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2" t="s">
         <v>160</v>
@@ -4521,15 +4520,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2" t="s">
         <v>160</v>
@@ -4539,15 +4538,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2" t="s">
         <v>160</v>
@@ -4557,15 +4556,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2" t="s">
         <v>160</v>
@@ -4575,15 +4574,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2" t="s">
         <v>160</v>
@@ -4593,15 +4592,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2" t="s">
         <v>160</v>
@@ -4611,15 +4610,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2" t="s">
         <v>160</v>
@@ -4629,15 +4628,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2" t="s">
         <v>160</v>
@@ -4647,15 +4646,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2" t="s">
         <v>160</v>
@@ -4665,15 +4664,15 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
       <c r="I29" s="72"/>
       <c r="J29" s="2" t="s">
         <v>160</v>
@@ -4683,15 +4682,15 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="72"/>
       <c r="J30" s="2" t="s">
         <v>160</v>
@@ -4701,33 +4700,33 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
       <c r="I31" s="61"/>
       <c r="J31" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2" t="s">
         <v>160</v>
@@ -4737,15 +4736,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2" t="s">
         <v>160</v>
@@ -4755,15 +4754,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2" t="s">
         <v>160</v>
@@ -4773,15 +4772,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2" t="s">
         <v>160</v>
@@ -4791,15 +4790,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2" t="s">
         <v>160</v>
@@ -4809,15 +4808,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2" t="s">
         <v>160</v>
@@ -4827,15 +4826,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2" t="s">
         <v>160</v>
@@ -4845,15 +4844,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2" t="s">
         <v>160</v>
@@ -4863,15 +4862,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
@@ -4879,15 +4878,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2" t="s">
         <v>160</v>
@@ -4897,15 +4896,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
@@ -4913,14 +4912,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B37:H37"/>
@@ -4937,22 +4944,14 @@
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4987,13 +4986,13 @@
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="18" t="s">
         <v>59</v>
       </c>
@@ -5009,13 +5008,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5028,13 +5027,13 @@
       <c r="A4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -5045,15 +5044,15 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="17"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5061,15 +5060,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="17"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -5077,15 +5076,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="17"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5093,15 +5092,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="13"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -5109,15 +5108,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="17"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -5125,15 +5124,15 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="17"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5143,13 +5142,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="73"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5159,13 +5158,13 @@
       <c r="A12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -5173,15 +5172,15 @@
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="17"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -5189,15 +5188,15 @@
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="24"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -5205,15 +5204,15 @@
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="17"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -5221,13 +5220,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5237,13 +5236,13 @@
       <c r="A17" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="14"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -5251,15 +5250,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="30"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -5267,15 +5266,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="17"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -5283,15 +5282,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="28"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -5299,15 +5298,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91"/>
       <c r="I21" s="15"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -5315,13 +5314,13 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="81"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5331,13 +5330,13 @@
       <c r="A23" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="14"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -5345,15 +5344,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="17"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5361,15 +5360,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="24"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5377,15 +5376,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="17"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5393,15 +5392,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="30"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5409,15 +5408,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="30"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5425,12 +5424,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B15:H15"/>
@@ -5447,11 +5445,12 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5482,13 +5481,13 @@
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="18" t="s">
         <v>59</v>
       </c>
@@ -5504,15 +5503,15 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
+      <c r="B3" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5525,13 +5524,13 @@
       <c r="A4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -5542,15 +5541,15 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="I5" s="28"/>
       <c r="J5" s="3" t="s">
         <v>160</v>
@@ -5560,15 +5559,15 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="28"/>
       <c r="J6" s="3" t="s">
         <v>160</v>
@@ -5578,15 +5577,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="28"/>
       <c r="J7" s="3" t="s">
         <v>160</v>
@@ -5596,15 +5595,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="28"/>
       <c r="J8" s="3" t="s">
         <v>160</v>
@@ -5614,15 +5613,15 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="28"/>
       <c r="J9" s="3" t="s">
         <v>160</v>
@@ -5632,15 +5631,15 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="28"/>
       <c r="J10" s="3" t="s">
         <v>160</v>
@@ -5652,13 +5651,13 @@
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="81"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="21"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -5668,13 +5667,13 @@
       <c r="A12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -5682,15 +5681,15 @@
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="17"/>
       <c r="J13" s="3" t="s">
         <v>160</v>
@@ -5700,15 +5699,15 @@
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="17"/>
       <c r="J14" s="3" t="s">
         <v>160</v>
@@ -5718,13 +5717,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="73"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -5734,13 +5733,13 @@
       <c r="A16" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="105"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109"/>
       <c r="I16" s="14"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5748,15 +5747,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="29"/>
       <c r="J17" s="3" t="s">
         <v>160</v>
@@ -5766,15 +5765,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="17"/>
       <c r="J18" s="3" t="s">
         <v>160</v>
@@ -5784,15 +5783,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
       <c r="I19" s="28"/>
       <c r="J19" s="3" t="s">
         <v>160</v>
@@ -5802,15 +5801,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="15"/>
       <c r="J20" s="2" t="s">
         <v>160</v>
@@ -5820,13 +5819,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -5836,13 +5835,13 @@
       <c r="A22" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
       <c r="I22" s="14"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5850,15 +5849,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="29"/>
       <c r="J23" s="3" t="s">
         <v>160</v>
@@ -5868,15 +5867,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="30"/>
       <c r="J24" s="3" t="s">
         <v>160</v>
@@ -5886,15 +5885,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="94"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="30"/>
       <c r="J25" s="3" t="s">
         <v>160</v>
@@ -5904,15 +5903,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="17"/>
       <c r="J26" s="3" t="s">
         <v>160</v>
@@ -5922,15 +5921,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="30"/>
       <c r="J27" s="3" t="s">
         <v>160</v>
@@ -5940,15 +5939,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="30"/>
       <c r="J28" s="3" t="s">
         <v>160</v>
@@ -5958,6 +5957,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B19:H19"/>
@@ -5974,17 +5984,6 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6001,8 +6000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6015,16 +6014,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="18" t="s">
         <v>57</v>
       </c>
@@ -6042,16 +6041,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="A3" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6061,32 +6060,32 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
       <c r="I5" s="12"/>
       <c r="J5" s="2" t="s">
         <v>160</v>
@@ -6095,16 +6094,16 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
       <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
         <v>160</v>
@@ -6113,16 +6112,16 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="13"/>
       <c r="J7" s="2" t="s">
         <v>160</v>
@@ -6131,16 +6130,16 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
       <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
         <v>160</v>
@@ -6149,16 +6148,16 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="23"/>
       <c r="J9" s="2" t="s">
         <v>160</v>
@@ -6167,16 +6166,16 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="83"/>
       <c r="J10" s="2" t="s">
         <v>160</v>
@@ -6185,16 +6184,16 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="83"/>
       <c r="J11" s="2" t="s">
         <v>160</v>
@@ -6204,16 +6203,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6242,16 +6241,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="18" t="s">
         <v>57</v>
       </c>
@@ -6269,16 +6268,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="A3" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6288,32 +6287,32 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
       <c r="I5" s="26"/>
       <c r="J5" s="2" t="s">
         <v>160</v>
@@ -6322,16 +6321,16 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="26"/>
       <c r="J6" s="2" t="s">
         <v>160</v>
@@ -6340,16 +6339,16 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="58"/>
       <c r="J7" s="2" t="s">
         <v>160</v>
@@ -6358,16 +6357,16 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="58"/>
       <c r="J8" s="2" t="s">
         <v>160</v>
@@ -6376,16 +6375,16 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="58"/>
       <c r="J9" s="2" t="s">
         <v>160</v>
@@ -6394,16 +6393,16 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
       <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
         <v>160</v>
@@ -6412,16 +6411,16 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
       <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
         <v>160</v>
@@ -6432,16 +6431,16 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="16"/>
       <c r="J12" s="2" t="s">
         <v>160</v>
@@ -6452,16 +6451,16 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="107"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2" t="s">
         <v>160</v>
@@ -6472,16 +6471,16 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="16"/>
       <c r="J14" s="2" t="s">
         <v>160</v>
@@ -6490,16 +6489,16 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2" t="s">
         <v>160</v>
@@ -6509,11 +6508,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -6523,6 +6517,11 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6539,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6557,15 +6556,15 @@
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="18" t="s">
         <v>57</v>
       </c>
@@ -6584,15 +6583,15 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
+      <c r="B3" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6605,13 +6604,13 @@
       <c r="A4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="120"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="14"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -6638,7 +6637,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -6720,7 +6719,7 @@
       <c r="H10" s="67"/>
       <c r="I10" s="17"/>
       <c r="J10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="9"/>
@@ -6781,15 +6780,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="24"/>
       <c r="J14" s="2" t="s">
         <v>160</v>
@@ -6846,7 +6845,7 @@
       <c r="H17" s="67"/>
       <c r="I17" s="13"/>
       <c r="J17" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="9"/>
@@ -6910,15 +6909,15 @@
       <c r="A22" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="35" t="s">
         <v>57</v>
       </c>
@@ -6934,13 +6933,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="73"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="36"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
@@ -6950,13 +6949,13 @@
       <c r="A24" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="107"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
       <c r="I24" s="37"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
@@ -6964,15 +6963,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2" t="s">
         <v>160</v>
@@ -6982,15 +6981,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2" t="s">
         <v>160</v>
@@ -7000,15 +6999,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2" t="s">
         <v>160</v>
@@ -7018,15 +7017,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2" t="s">
         <v>160</v>
@@ -7036,15 +7035,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2" t="s">
         <v>160</v>
@@ -7054,15 +7053,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2" t="s">
         <v>160</v>
@@ -7072,15 +7071,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2" t="s">
         <v>160</v>
@@ -7090,15 +7089,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2" t="s">
         <v>160</v>
@@ -7108,15 +7107,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2" t="s">
         <v>160</v>
@@ -7126,15 +7125,15 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
       <c r="I34" s="72"/>
       <c r="J34" s="2" t="s">
         <v>160</v>
@@ -7144,15 +7143,15 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
       <c r="I35" s="72"/>
       <c r="J35" s="2" t="s">
         <v>160</v>
@@ -7162,15 +7161,15 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
       <c r="I36" s="61"/>
       <c r="J36" s="2" t="s">
         <v>160</v>
@@ -7180,15 +7179,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2" t="s">
         <v>160</v>
@@ -7198,15 +7197,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2" t="s">
         <v>160</v>
@@ -7216,15 +7215,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2" t="s">
         <v>160</v>
@@ -7234,15 +7233,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2" t="s">
         <v>160</v>
@@ -7252,15 +7251,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2" t="s">
         <v>160</v>
@@ -7270,15 +7269,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2" t="s">
         <v>160</v>
@@ -7288,15 +7287,15 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
       <c r="I43" s="67"/>
       <c r="J43" s="2" t="s">
         <v>160</v>
@@ -7306,15 +7305,15 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
       <c r="I44" s="67"/>
       <c r="J44" s="2" t="s">
         <v>160</v>
@@ -7324,15 +7323,15 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
       <c r="I45" s="67"/>
       <c r="J45" s="2"/>
       <c r="K45" s="6"/>
@@ -7340,15 +7339,15 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="110" t="s">
+      <c r="B46" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
       <c r="I46" s="67"/>
       <c r="J46" s="2" t="s">
         <v>160</v>
@@ -7358,15 +7357,15 @@
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
       <c r="I47" s="67"/>
       <c r="J47" s="2"/>
       <c r="K47" s="6"/>
@@ -7374,20 +7373,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B23:H23"/>
@@ -7404,6 +7389,20 @@
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7420,7 +7419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
@@ -7464,7 +7463,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
       <c r="B3" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="124"/>
       <c r="D3" s="124"/>
@@ -7660,15 +7659,15 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="27"/>
       <c r="J14" s="2" t="s">
         <v>160</v>
@@ -7678,15 +7677,15 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="31"/>
       <c r="J15" s="2" t="s">
         <v>160</v>
@@ -7696,15 +7695,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
       <c r="I16" s="15"/>
       <c r="J16" s="2" t="s">
         <v>160</v>
@@ -7714,15 +7713,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="15"/>
       <c r="J17" s="2" t="s">
         <v>160</v>
@@ -7748,15 +7747,15 @@
       <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="113"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
       <c r="I19" s="55" t="s">
         <v>57</v>
       </c>
@@ -7772,13 +7771,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="73"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
       <c r="I20" s="56"/>
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
@@ -7788,13 +7787,13 @@
       <c r="A21" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="58"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -7802,15 +7801,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2" t="s">
         <v>160</v>
@@ -7820,15 +7819,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2" t="s">
         <v>160</v>
@@ -7838,15 +7837,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2" t="s">
         <v>160</v>
@@ -7856,15 +7855,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2" t="s">
         <v>160</v>
@@ -7874,15 +7873,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2" t="s">
         <v>160</v>
@@ -7892,15 +7891,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2" t="s">
         <v>160</v>
@@ -7910,15 +7909,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="67"/>
       <c r="J28" s="2" t="s">
         <v>160</v>
@@ -7928,15 +7927,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
       <c r="I29" s="67"/>
       <c r="J29" s="2" t="s">
         <v>160</v>
@@ -7946,15 +7945,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="67"/>
       <c r="J30" s="2" t="s">
         <v>160</v>
@@ -7964,15 +7963,15 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
       <c r="I31" s="72"/>
       <c r="J31" s="2" t="s">
         <v>160</v>
@@ -7982,15 +7981,15 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
       <c r="I32" s="72"/>
       <c r="J32" s="2" t="s">
         <v>160</v>
@@ -8000,15 +7999,15 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
       <c r="I33" s="61"/>
       <c r="J33" s="2" t="s">
         <v>160</v>
@@ -8018,15 +8017,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2" t="s">
         <v>160</v>
@@ -8036,15 +8035,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2" t="s">
         <v>160</v>
@@ -8054,15 +8053,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2" t="s">
         <v>160</v>
@@ -8072,15 +8071,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2" t="s">
         <v>160</v>
@@ -8090,15 +8089,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2" t="s">
         <v>160</v>
@@ -8108,15 +8107,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2" t="s">
         <v>160</v>
@@ -8126,15 +8125,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2" t="s">
         <v>160</v>
@@ -8144,15 +8143,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2" t="s">
         <v>160</v>
@@ -8162,15 +8161,15 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
       <c r="I42" s="67"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
@@ -8178,15 +8177,15 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
       <c r="I43" s="67"/>
       <c r="J43" s="2" t="s">
         <v>160</v>
@@ -8196,15 +8195,15 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
       <c r="I44" s="67"/>
       <c r="J44" s="2"/>
       <c r="K44" s="6"/>
@@ -8212,32 +8211,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -8254,6 +8227,32 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8270,7 +8269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
@@ -8315,7 +8314,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
       <c r="B3" s="127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="127"/>
       <c r="D3" s="127"/>
@@ -8347,14 +8346,14 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="53"/>
       <c r="I5" s="2" t="s">
         <v>160</v>
@@ -8364,14 +8363,14 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="53"/>
       <c r="I6" s="2" t="s">
         <v>160</v>
@@ -8381,14 +8380,14 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="53"/>
       <c r="I7" s="2" t="s">
         <v>160</v>
@@ -8398,14 +8397,14 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
       <c r="H8" s="53"/>
       <c r="I8" s="2" t="s">
         <v>160</v>
@@ -8415,14 +8414,14 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="53"/>
       <c r="I9" s="2" t="s">
         <v>160</v>
@@ -8432,14 +8431,14 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="53"/>
       <c r="I10" s="2" t="s">
         <v>160</v>
@@ -8449,14 +8448,14 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="11"/>
       <c r="I11" s="2" t="s">
         <v>160</v>
@@ -8466,14 +8465,14 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="32"/>
       <c r="I12" s="2" t="s">
         <v>160</v>
@@ -8483,14 +8482,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
       <c r="H13" s="11"/>
       <c r="I13" s="2" t="s">
         <v>160</v>
@@ -8500,14 +8499,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="11"/>
       <c r="I14" s="2" t="s">
         <v>160</v>
@@ -8517,14 +8516,14 @@
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="32"/>
       <c r="I15" s="2" t="s">
         <v>160</v>
@@ -8534,14 +8533,14 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="32"/>
       <c r="I16" s="2" t="s">
         <v>160</v>
@@ -8551,14 +8550,14 @@
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
       <c r="H17" s="57"/>
       <c r="I17" s="2" t="s">
         <v>160</v>
@@ -8568,14 +8567,14 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
       <c r="H18" s="57"/>
       <c r="I18" s="2" t="s">
         <v>160</v>
@@ -8588,14 +8587,14 @@
       <c r="A20" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
       <c r="H20" s="55" t="s">
         <v>57</v>
       </c>
@@ -8611,12 +8610,12 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="56"/>
       <c r="I21" s="4"/>
       <c r="J21" s="6"/>
@@ -8626,12 +8625,12 @@
       <c r="A22" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="58"/>
       <c r="I22" s="2"/>
       <c r="J22" s="6"/>
@@ -8639,14 +8638,14 @@
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="67"/>
       <c r="I23" s="2" t="s">
         <v>160</v>
@@ -8656,14 +8655,14 @@
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="67"/>
       <c r="I24" s="2" t="s">
         <v>160</v>
@@ -8673,14 +8672,14 @@
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
       <c r="H25" s="67"/>
       <c r="I25" s="2" t="s">
         <v>160</v>
@@ -8690,14 +8689,14 @@
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
       <c r="H26" s="67"/>
       <c r="I26" s="2" t="s">
         <v>160</v>
@@ -8707,14 +8706,14 @@
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
       <c r="H27" s="67"/>
       <c r="I27" s="2" t="s">
         <v>160</v>
@@ -8724,14 +8723,14 @@
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
       <c r="H28" s="67"/>
       <c r="I28" s="2" t="s">
         <v>160</v>
@@ -8741,14 +8740,14 @@
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
       <c r="H29" s="67"/>
       <c r="I29" s="2" t="s">
         <v>160</v>
@@ -8758,14 +8757,14 @@
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
       <c r="H30" s="67"/>
       <c r="I30" s="2" t="s">
         <v>160</v>
@@ -8775,14 +8774,14 @@
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
       <c r="H31" s="67"/>
       <c r="I31" s="2" t="s">
         <v>160</v>
@@ -8792,14 +8791,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="72"/>
       <c r="I32" s="2" t="s">
         <v>160</v>
@@ -8809,14 +8808,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="72"/>
       <c r="I33" s="2" t="s">
         <v>160</v>
@@ -8826,14 +8825,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="61"/>
       <c r="I34" s="2" t="s">
         <v>160</v>
@@ -8843,14 +8842,14 @@
     </row>
     <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
       <c r="H35" s="67"/>
       <c r="I35" s="2" t="s">
         <v>160</v>
@@ -8860,14 +8859,14 @@
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
       <c r="H36" s="67"/>
       <c r="I36" s="2" t="s">
         <v>160</v>
@@ -8877,14 +8876,14 @@
     </row>
     <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
       <c r="H37" s="67"/>
       <c r="I37" s="2" t="s">
         <v>160</v>
@@ -8894,14 +8893,14 @@
     </row>
     <row r="38" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
       <c r="H38" s="67"/>
       <c r="I38" s="2" t="s">
         <v>160</v>
@@ -8911,14 +8910,14 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
       <c r="H39" s="67"/>
       <c r="I39" s="2" t="s">
         <v>160</v>
@@ -8928,14 +8927,14 @@
     </row>
     <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="67"/>
       <c r="I40" s="2" t="s">
         <v>160</v>
@@ -8945,14 +8944,14 @@
     </row>
     <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="67"/>
       <c r="I41" s="2" t="s">
         <v>160</v>
@@ -8962,14 +8961,14 @@
     </row>
     <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
       <c r="H42" s="67"/>
       <c r="I42" s="2" t="s">
         <v>160</v>
@@ -8979,14 +8978,14 @@
     </row>
     <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
       <c r="H43" s="67"/>
       <c r="I43" s="2"/>
       <c r="J43" s="6"/>
@@ -8994,14 +8993,14 @@
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="67"/>
       <c r="I44" s="2" t="s">
         <v>160</v>
@@ -9011,14 +9010,14 @@
     </row>
     <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
       <c r="H45" s="67"/>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>
@@ -9026,17 +9025,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:G41"/>
@@ -9053,22 +9057,17 @@
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -9132,7 +9131,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
       <c r="B3" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="124"/>
       <c r="D3" s="124"/>
@@ -9166,15 +9165,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="53"/>
       <c r="J5" s="2" t="s">
         <v>160</v>
@@ -9184,15 +9183,15 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
       <c r="I6" s="53"/>
       <c r="J6" s="2" t="s">
         <v>160</v>
@@ -9202,15 +9201,15 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
       <c r="I7" s="53"/>
       <c r="J7" s="2" t="s">
         <v>160</v>
@@ -9220,15 +9219,15 @@
     </row>
     <row r="8" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
       <c r="I8" s="32"/>
       <c r="J8" s="2" t="s">
         <v>160</v>
@@ -9238,15 +9237,15 @@
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="32"/>
       <c r="J9" s="2" t="s">
         <v>160</v>
@@ -9256,15 +9255,15 @@
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
       <c r="I10" s="48"/>
       <c r="J10" s="2" t="s">
         <v>160</v>
@@ -9274,15 +9273,15 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="15"/>
       <c r="J11" s="2" t="s">
         <v>160</v>
@@ -9292,15 +9291,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
       <c r="I12" s="12"/>
       <c r="J12" s="2" t="s">
         <v>160</v>
@@ -9310,15 +9309,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
       <c r="I13" s="13"/>
       <c r="J13" s="2" t="s">
         <v>160</v>
@@ -9328,15 +9327,15 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
       <c r="I14" s="33"/>
       <c r="J14" s="2" t="s">
         <v>160</v>
@@ -9346,15 +9345,15 @@
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
       <c r="I15" s="84"/>
       <c r="J15" s="2" t="s">
         <v>160</v>
@@ -9366,15 +9365,15 @@
       <c r="A16" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
       <c r="I16" s="87" t="s">
         <v>57</v>
       </c>
@@ -9390,13 +9389,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="107"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="85"/>
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
@@ -9406,13 +9405,13 @@
       <c r="A18" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="88"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
@@ -9420,15 +9419,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="67"/>
       <c r="J19" s="2" t="s">
         <v>160</v>
@@ -9438,15 +9437,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="67"/>
       <c r="J20" s="2" t="s">
         <v>160</v>
@@ -9456,15 +9455,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="67"/>
       <c r="J21" s="2" t="s">
         <v>160</v>
@@ -9474,15 +9473,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="67"/>
       <c r="J22" s="2" t="s">
         <v>160</v>
@@ -9492,15 +9491,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="67"/>
       <c r="J23" s="2" t="s">
         <v>160</v>
@@ -9510,15 +9509,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="67"/>
       <c r="J24" s="2" t="s">
         <v>160</v>
@@ -9528,15 +9527,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="67"/>
       <c r="J25" s="2" t="s">
         <v>160</v>
@@ -9546,15 +9545,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="67"/>
       <c r="J26" s="2" t="s">
         <v>160</v>
@@ -9564,15 +9563,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="67"/>
       <c r="J27" s="2" t="s">
         <v>160</v>
@@ -9582,15 +9581,15 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="107"/>
       <c r="I28" s="72"/>
       <c r="J28" s="2" t="s">
         <v>160</v>
@@ -9600,15 +9599,15 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="72"/>
       <c r="J29" s="2" t="s">
         <v>160</v>
@@ -9618,15 +9617,15 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="131"/>
       <c r="I30" s="61"/>
       <c r="J30" s="2" t="s">
         <v>160</v>
@@ -9636,15 +9635,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="91"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="67"/>
       <c r="J31" s="2" t="s">
         <v>160</v>
@@ -9654,15 +9653,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="67"/>
       <c r="J32" s="2" t="s">
         <v>160</v>
@@ -9672,15 +9671,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="91"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="96"/>
       <c r="I33" s="67"/>
       <c r="J33" s="2" t="s">
         <v>160</v>
@@ -9690,15 +9689,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="91"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="96"/>
       <c r="I34" s="67"/>
       <c r="J34" s="2" t="s">
         <v>160</v>
@@ -9708,15 +9707,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="91"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="67"/>
       <c r="J35" s="2" t="s">
         <v>160</v>
@@ -9726,15 +9725,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="91"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="96"/>
       <c r="I36" s="67"/>
       <c r="J36" s="2" t="s">
         <v>160</v>
@@ -9744,15 +9743,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="96"/>
       <c r="I37" s="67"/>
       <c r="J37" s="2" t="s">
         <v>160</v>
@@ -9762,15 +9761,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="96"/>
       <c r="I38" s="67"/>
       <c r="J38" s="2" t="s">
         <v>160</v>
@@ -9780,15 +9779,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="91"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="67"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
@@ -9796,15 +9795,15 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="96"/>
       <c r="I40" s="67"/>
       <c r="J40" s="2" t="s">
         <v>160</v>
@@ -9814,15 +9813,15 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="91"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="67"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
@@ -9830,30 +9829,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -9870,6 +9845,30 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
